--- a/biology/Botanique/Jardin_Federica-Montseny/Jardin_Federica-Montseny.xlsx
+++ b/biology/Botanique/Jardin_Federica-Montseny/Jardin_Federica-Montseny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin Federica-Montseny est un espace vert du 13e arrondissement de Paris, en France situé sur la place Louis-Armstrong[1].
+Le jardin Federica-Montseny est un espace vert du 13e arrondissement de Paris, en France situé sur la place Louis-Armstrong.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par la place Louis-Armstrong, la rue Esquirol, la rue Jenner et le boulevard de l'Hôpital. Il se situe au centre de la rue Jeanne-d'Arc.
 Il est desservi par la ligne 5 à la station Campo-Formio.
-Il fait partie des jardins parisiens ouvrant toute la nuit en cas de canicule[2].
+Il fait partie des jardins parisiens ouvrant toute la nuit en cas de canicule.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de l'anarchiste  espagnole Federica Montseny (1905-1994), écrivaine et ministre de la République espagnole qui a ouvert le droit à l'avortement en Catalogne, réfugiée en France après la Retirada. 
 </t>
@@ -576,11 +592,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin est créé en 2002. Il est une étape de la Voie de la Libération - de la Porte d'Italie à l'Hôtel de Ville - suivie le 24 août 1944 par la Nueve, soldats de la 2e DB, majoritairement républicains espagnols. Il prend son nom par délibération du Conseil de Paris[3].
-Il a été officiellement inauguré[4] le 24 août 2019 en présence la Maire de Paris, Anne Hidalgo et de la ministre de la Justice espagnole Dolores Delgado.
-Des anarchistes de la CNT-AIT ont protesté contre cette inauguration officielle, selon eux aux antipodes des engagements politiques de Federica Montseny[5]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin est créé en 2002. Il est une étape de la Voie de la Libération - de la Porte d'Italie à l'Hôtel de Ville - suivie le 24 août 1944 par la Nueve, soldats de la 2e DB, majoritairement républicains espagnols. Il prend son nom par délibération du Conseil de Paris.
+Il a été officiellement inauguré le 24 août 2019 en présence la Maire de Paris, Anne Hidalgo et de la ministre de la Justice espagnole Dolores Delgado.
+Des anarchistes de la CNT-AIT ont protesté contre cette inauguration officielle, selon eux aux antipodes des engagements politiques de Federica Montseny
 </t>
         </is>
       </c>
